--- a/Data/Arkiv/Frekvenser_i alt.xlsx
+++ b/Data/Arkiv/Frekvenser_i alt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodst\OneDrive\Bærbar\Polit\Kandidat\KU\E20 - Speciale\Github\speciale2020\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodst\OneDrive\Bærbar\Polit\Kandidat\KU\E20 - Speciale\Github\speciale2020\Data\Arkiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{5EAE3DDB-A7CF-474C-8700-632C840799C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D899BB36-C660-49EB-B757-407CA1F3C63A}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-375" windowWidth="29040" windowHeight="15840" xr2:uid="{CEFB1AA5-81CE-4E1A-95A3-FAAC0B42E31F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{CEFB1AA5-81CE-4E1A-95A3-FAAC0B42E31F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:AS21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +492,7 @@
         <v>8798</v>
       </c>
       <c r="C2">
-        <f>B2/SUM($B$2:$B$21)</f>
+        <f t="shared" ref="C2:C21" si="0">B2/SUM($B$2:$B$21)</f>
         <v>6.2185467910658751E-2</v>
       </c>
       <c r="D2" s="1"/>
@@ -522,7 +522,7 @@
         <v>8378</v>
       </c>
       <c r="C3">
-        <f>B3/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>5.9216850438224486E-2</v>
       </c>
     </row>
@@ -534,7 +534,7 @@
         <v>6089</v>
       </c>
       <c r="C4">
-        <f>B4/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>4.3037885213457736E-2</v>
       </c>
       <c r="X4" s="1"/>
@@ -567,7 +567,7 @@
         <v>3160</v>
       </c>
       <c r="C5">
-        <f>B5/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>2.2335312411648288E-2</v>
       </c>
       <c r="X5" s="1"/>
@@ -580,7 +580,7 @@
         <v>21329</v>
       </c>
       <c r="C6">
-        <f>B6/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>0.15075629064178683</v>
       </c>
       <c r="X6" s="1"/>
@@ -593,7 +593,7 @@
         <v>9928</v>
       </c>
       <c r="C7">
-        <f>B7/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>7.0172462538874755E-2</v>
       </c>
     </row>
@@ -605,7 +605,7 @@
         <v>7877</v>
       </c>
       <c r="C8">
-        <f>B8/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>5.567571388182075E-2</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>8150</v>
       </c>
       <c r="C9">
-        <f>B9/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>5.7605315238903027E-2</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
         <v>5406</v>
       </c>
       <c r="C10">
-        <f>B10/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>3.8210347752332487E-2</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
         <v>11205</v>
       </c>
       <c r="C11">
-        <f>B11/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>7.9198473282442741E-2</v>
       </c>
     </row>
@@ -653,7 +653,7 @@
         <v>5958</v>
       </c>
       <c r="C12">
-        <f>B12/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>4.2111959287531808E-2</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>9716</v>
       </c>
       <c r="C13">
-        <f>B13/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>6.8674017528979364E-2</v>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>4745</v>
       </c>
       <c r="C14">
-        <f>B14/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>3.3538309301668082E-2</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
         <v>6542</v>
       </c>
       <c r="C15">
-        <f>B15/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>4.623975120158326E-2</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>3126</v>
       </c>
       <c r="C16">
-        <f>B16/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>2.2094995759117896E-2</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
         <v>3934</v>
       </c>
       <c r="C17">
-        <f>B17/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>2.7806050325134293E-2</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
         <v>6285</v>
       </c>
       <c r="C18">
-        <f>B18/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>4.4423240033927058E-2</v>
       </c>
     </row>
@@ -737,7 +737,7 @@
         <v>3586</v>
       </c>
       <c r="C19">
-        <f>B19/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>2.5346338705117332E-2</v>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>3824</v>
       </c>
       <c r="C20">
-        <f>B20/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>2.7028555272830081E-2</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>3444</v>
       </c>
       <c r="C21">
-        <f>B21/SUM($B$2:$B$21)</f>
+        <f t="shared" si="0"/>
         <v>2.4342663273960983E-2</v>
       </c>
     </row>
